--- a/xlsx/美国文学_intext.xlsx
+++ b/xlsx/美国文学_intext.xlsx
@@ -15,2229 +15,2199 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="731">
   <si>
     <t>美国文学</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%87%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国文化</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E5%8F%8A%E6%B0%91%E6%97%8F</t>
+  </si>
+  <si>
+    <t>美国种族及民族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91%E7%A5%9E%E8%A9%B1</t>
+  </si>
+  <si>
+    <t>美洲原住民神话</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F</t>
+  </si>
+  <si>
+    <t>美国饮食</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AF%80%E6%97%A5</t>
+  </si>
+  <si>
+    <t>美国节日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>美国宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%BB%BA%E7%AF%89</t>
+  </si>
+  <si>
+    <t>美国建筑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%BC%AB%E7%94%BB%E4%B9%A6</t>
+  </si>
+  <si>
+    <t>美国漫画书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9F%B3%E6%A8%82</t>
+  </si>
+  <si>
+    <t>美国音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%AB%94%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国体育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%AA%92%E9%AB%94</t>
+  </si>
+  <si>
+    <t>美国媒体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>美国电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
+  </si>
+  <si>
+    <t>美国电视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>美国国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%BE%BD</t>
+  </si>
+  <si>
+    <t>美国国徽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%B4%80%E5%BF%B5%E5%8D%80</t>
+  </si>
+  <si>
+    <t>国家纪念区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%91%E4%BB%AC%E4%BF%A1%E4%BB%B0%E4%B8%8A%E5%B8%9D</t>
+  </si>
+  <si>
+    <t>我们信仰上帝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%9D%A1%E6%97%97_(%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%AD%8C)</t>
+  </si>
+  <si>
+    <t>星条旗 (美国国歌)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A0%AD%E6%B5%B7%E9%B5%B0</t>
+  </si>
+  <si>
+    <t>白头海鵰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>Template talk-美国文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>英语文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%C2%B7%E6%AD%90%E6%96%87</t>
+  </si>
+  <si>
+    <t>华盛顿·欧文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E4%BC%AF%E5%A4%A7%E5%A4%A2</t>
+  </si>
+  <si>
+    <t>李伯大梦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%89%E7%9D%A1%E8%B0%B7%E4%BC%A0%E5%A5%87</t>
+  </si>
+  <si>
+    <t>沉睡谷传奇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E7%89%B9%E5%B0%8F%E8%AF%B4</t>
+  </si>
+  <si>
+    <t>哥特小说</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%96%87</t>
+  </si>
+  <si>
+    <t>散文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%BB%E6%96%87</t>
+  </si>
+  <si>
+    <t>韵文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A7%A2%E6%96%87</t>
+  </si>
+  <si>
+    <t>骈文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%97%E6%AD%8C</t>
+  </si>
+  <si>
+    <t>诗歌</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%8D_(%E6%96%87%E5%AD%A6)</t>
+  </si>
+  <si>
+    <t>词 (文学)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%9B%B2</t>
+  </si>
+  <si>
+    <t>元曲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E8%A9%9E</t>
+  </si>
+  <si>
+    <t>歌词</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%AF%B4</t>
+  </si>
+  <si>
+    <t>小说</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E7%AF%87%E5%B0%8F%E8%AA%AA</t>
+  </si>
+  <si>
+    <t>长篇小说</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%8F%E5%89%A7</t>
+  </si>
+  <si>
+    <t>戏剧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E8%A8%98</t>
+  </si>
+  <si>
+    <t>传记</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%84%BF%E7%AB%A5%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>儿童文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%A6%E6%B5%81%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>文学流派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%96%87%E5%AD%B8%E7%90%86%E8%AB%96</t>
+  </si>
+  <si>
+    <t>西方文学理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%A6%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>文学史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>古希腊文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>古罗马文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%9F%83%E5%8F%8A%E6%96%87%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>古埃及文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>爱尔兰文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%96%87%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>英国文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E6%96%87%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>义大利文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>西班牙文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>印度文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>中国文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%96%87%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>台湾文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%96%87%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>香港文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>朝鲜文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>韩国文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%96%87%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>德国文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>波斯文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>日本文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>法语文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2%E6%96%87%E5%AD%A6%E7%88%86%E7%82%B8</t>
+  </si>
+  <si>
+    <t>拉丁美洲文学爆炸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9B%BD%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>俄国文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%AA%AA%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>小说家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9A%A8%E7%AD%86%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>随笔家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%A7%E4%BD%9C%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>剧作家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%A9%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>诗人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%9E%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>词人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%9B%B2%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>作曲家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%AB%E8%A9%9E%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>填词人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%96%87%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>散文家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E4%BD%9C%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>网络作家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E4%BC%A6%C2%B7%E5%9D%A1</t>
+  </si>
+  <si>
+    <t>爱伦·坡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%B0%94%E6%A0%BC%E8%A1%97%E5%87%B6%E6%9D%80%E6%A1%88</t>
+  </si>
+  <si>
+    <t>莫尔格街凶杀案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%92%92%E5%B0%BC%E7%88%BE%C2%B7%E9%9C%8D%E6%A1%91</t>
+  </si>
+  <si>
+    <t>纳撒尼尔·霍桑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E5%BE%81%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>象征主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%A7%98%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>神秘主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E5%A5%87</t>
+  </si>
+  <si>
+    <t>传奇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%93%E8%A8%80</t>
+  </si>
+  <si>
+    <t>寓言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>新英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E5%AD%97</t>
+  </si>
+  <si>
+    <t>红字</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E5%A5%B8</t>
+  </si>
+  <si>
+    <t>通奸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E6%A1%91</t>
+  </si>
+  <si>
+    <t>霍桑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E6%9B%BC%C2%B7%E6%A2%85%E7%88%BE%E7%B6%AD%E7%88%BE</t>
+  </si>
+  <si>
+    <t>赫尔曼·梅尔维尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%AF%A8%E8%A8%98</t>
+  </si>
+  <si>
+    <t>白鲸记</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%B0%94%E7%BB%B4%E5%B0%94</t>
+  </si>
+  <si>
+    <t>梅尔维尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6</t>
+  </si>
+  <si>
+    <t>联邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B0%94%E5%A4%AB%C2%B7%E6%B2%83%E5%B0%94%E5%A4%9A%C2%B7%E7%88%B1%E9%BB%98%E7%94%9F</t>
+  </si>
+  <si>
+    <t>拉尔夫·沃尔多·爱默生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6</t>
+  </si>
+  <si>
+    <t>自然</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E9%BB%98%E7%94%9F</t>
+  </si>
+  <si>
+    <t>爱默生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%AD%E7%BD%97</t>
+  </si>
+  <si>
+    <t>梭罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
+  </si>
+  <si>
+    <t>新教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%B0%94%E7%99%BB%E6%B9%96</t>
+  </si>
+  <si>
+    <t>瓦尔登湖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%C2%B7%E5%90%90%E6%B8%A9</t>
+  </si>
+  <si>
+    <t>马克·吐温</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密苏里州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A0%91%E7%AB%A5%E6%B5%81%E6%B5%AA%E8%A8%98</t>
+  </si>
+  <si>
+    <t>顽童流浪记</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>新闻学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E8%A8%80</t>
+  </si>
+  <si>
+    <t>方言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%A9%B9%E5%A7%86%E6%96%AF</t>
+  </si>
+  <si>
+    <t>亨利·詹姆斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>纽约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%89%B9%C2%B7%E6%83%A0%E7%89%B9%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>沃尔特·惠特曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>南北战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%89%E8%91%89%E9%9B%86</t>
+  </si>
+  <si>
+    <t>草叶集</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>民主</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/D%C2%B7H%C2%B7%E5%8A%B3%E4%BC%A6%E6%96%AF</t>
+  </si>
+  <si>
+    <t>D·H·劳伦斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E7%89%B9%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>惠特曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%B1%B3%E8%8E%89%C2%B7%E8%BF%AA%E6%9B%B4%E7%94%9F</t>
+  </si>
+  <si>
+    <t>埃米莉·迪更生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%96%A9%E8%AB%B8%E5%A1%9E</t>
+  </si>
+  <si>
+    <t>马萨诸塞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%81%E7%A4%BE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>上流社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%BF%AA%E4%B8%9D%C2%B7%E5%8D%8E%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>伊迪丝·华顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%AF%E7%9C%9F%E5%B9%B4%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>纯真年代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E5%85%8B%E8%90%8A%E6%81%A9</t>
+  </si>
+  <si>
+    <t>史蒂芬·克莱恩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E8%89%B2%E8%8B%B1%E5%8B%87%E5%8B%8B%E7%AB%A0</t>
+  </si>
+  <si>
+    <t>红色英勇勋章</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A6%93%E5%A5%B3</t>
+  </si>
+  <si>
+    <t>妓女</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A7%E5%A4%9A%C2%B7%E5%BE%B7%E8%90%8A%E8%B3%BD</t>
+  </si>
+  <si>
+    <t>西奥多·德莱赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
+  </si>
+  <si>
+    <t>芝加哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
+  </si>
+  <si>
+    <t>巴黎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%89%B9%E9%B2%81%E5%BE%B7%C2%B7%E6%96%AF%E6%B3%B0%E5%9B%A0</t>
+  </si>
+  <si>
+    <t>格特鲁德·斯泰因</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E4%BD%93%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>立体主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
+  </si>
+  <si>
+    <t>爵士乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E8%89%BA%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>现代艺术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%85%B9%E6%8B%89%C2%B7%E5%BA%9E%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>艾兹拉·庞德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>爱达荷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A6%AC%E6%96%AF%C2%B7%E6%96%AF%E7%89%B9%E7%88%BE%E9%82%A3%E6%96%AF%C2%B7%E8%89%BE%E7%95%A5%E7%89%B9</t>
+  </si>
+  <si>
+    <t>托马斯·斯特尔那斯·艾略特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%92%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>荒原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
+  </si>
+  <si>
+    <t>第一次世界大战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E8%B4%9D%E5%B0%94%E6%96%87%E5%AD%A6%E5%A5%96</t>
+  </si>
+  <si>
+    <t>诺贝尔文学奖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E6%BB%8B%E5%82%91%E7%BE%85</t>
+  </si>
+  <si>
+    <t>费滋杰罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BA%A8%E5%B0%8F%E5%82%B3</t>
+  </si>
+  <si>
+    <t>大亨小传</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E5%86%85%E6%96%AF%E7%89%B9%C2%B7%E6%B5%B7%E6%98%8E%E5%A8%81</t>
+  </si>
+  <si>
+    <t>欧内斯特·海明威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%91%E8%AD%B7%E8%BB%8A</t>
+  </si>
+  <si>
+    <t>救护车</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E5%88%AB%E4%BA%86%EF%BC%8C%E6%AD%A6%E5%99%A8</t>
+  </si>
+  <si>
+    <t>永别了，武器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%8F%B2%E5%9D%A6%E8%B2%9D%E5%85%8B</t>
+  </si>
+  <si>
+    <t>约翰·史坦贝克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>加利福尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%A6%E8%AF%84%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>文学评论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%A4%E6%80%92%E7%9A%84%E8%91%A1%E8%90%84</t>
+  </si>
+  <si>
+    <t>愤怒的葡萄</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>俄克拉荷马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%BC%A0%E4%B9%8B%E9%96%93</t>
+  </si>
+  <si>
+    <t>人鼠之间</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%94%B8%E5%9C%92%E6%9D%B1</t>
+  </si>
+  <si>
+    <t>伊甸园东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%91%C2%B7%E5%A5%A5%E5%B0%BC%E5%B0%94</t>
+  </si>
+  <si>
+    <t>尤金·奥尼尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BB%8F</t>
+  </si>
+  <si>
+    <t>圣经</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%C2%B7%E5%A8%81%E5%BB%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>田纳西·威廉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%B2%E6%9C%9B%E5%8F%B7%E8%A1%97%E8%BD%A6</t>
+  </si>
+  <si>
+    <t>欲望号街车</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E9%96%80%E5%B7%A7%E5%A9%A6</t>
+  </si>
+  <si>
+    <t>朱门巧妇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%98%8E%E5%A8%81</t>
+  </si>
+  <si>
+    <t>海明威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%A6%8F%E5%85%8B%E7%B4%8D</t>
+  </si>
+  <si>
+    <t>威廉·福克纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密西西比河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AF%86%E6%B5%81</t>
+  </si>
+  <si>
+    <t>意识流</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%A7%E5%93%97%E4%B8%8E%E9%AA%9A%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>喧哗与骚动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%BC%E6%B2%99%E9%BE%8D%EF%BC%8C%E6%8A%BC%E6%B2%99%E9%BE%8D%EF%BC%81</t>
+  </si>
+  <si>
+    <t>押沙龙，押沙龙！</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BB%E5%90%A7%EF%BC%8C%E6%91%A9%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>去吧，摩西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>福克纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E9%B2%81%E9%97%A8%C2%B7%E5%8D%A1%E6%B3%A2%E7%89%B9</t>
+  </si>
+  <si>
+    <t>杜鲁门·卡波特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%85%B0%E7%BA%B3%E9%87%8C%C2%B7%E5%A5%A5%E5%BA%B7%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>弗兰纳里·奥康纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%AA%E5%AE%9E%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>纪实文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E8%A1%80</t>
+  </si>
+  <si>
+    <t>冷血</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E6%9B%BC%C2%B7%E6%A2%85%E5%8B%92</t>
+  </si>
+  <si>
+    <t>诺曼·梅勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%A4%E5%A7%86%C2%B7%E6%B2%83%E5%B0%94%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>汤姆·沃尔夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%A7%92%E5%A4%A7%E6%A5%BC</t>
+  </si>
+  <si>
+    <t>五角大楼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E5%85%88%E9%94%8B</t>
+  </si>
+  <si>
+    <t>太空先锋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%96%B0%E9%97%BB%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>新新闻主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
+  </si>
+  <si>
+    <t>天主教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%9D</t>
+  </si>
+  <si>
+    <t>上帝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E9%AC%BC</t>
+  </si>
+  <si>
+    <t>魔鬼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%82%B2%E5%96%9C%E5%89%A7</t>
+  </si>
+  <si>
+    <t>悲喜剧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>曼哈顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>哈莱姆区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
+  </si>
+  <si>
+    <t>哈莱姆文艺复兴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E6%96%AF%E9%A1%BF%C2%B7%E4%BC%91%E6%96%AF</t>
+  </si>
+  <si>
+    <t>朗斯顿·休斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E6%8B%89%C2%B7%E5%B0%BC%E5%B0%94%C2%B7%E8%B5%AB%E6%96%AF%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>佐拉·尼尔·赫斯顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
+  </si>
+  <si>
+    <t>第二次世界大战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%B2%8D%E5%BE%B7%E6%B8%A9</t>
+  </si>
+  <si>
+    <t>詹姆斯·鲍德温</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>种族主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E8%A7%A3%E6%94%BE</t>
+  </si>
+  <si>
+    <t>性解放</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9A%90%E5%BD%A2%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>隐形人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>非裔美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>垮掉的一代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E5%93%81</t>
+  </si>
+  <si>
+    <t>毒品</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%85%92%E7%B2%BE</t>
+  </si>
+  <si>
+    <t>酒精</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BC%A6%C2%B7%E9%87%91%E6%96%AF%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>艾伦·金斯堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%C2%B7%E5%85%8B%E9%B2%81%E4%BA%9A%E5%85%8B</t>
+  </si>
+  <si>
+    <t>杰克·克鲁亚克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E8%B7%AF%E4%B8%8A</t>
+  </si>
+  <si>
+    <t>在路上</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E7%8E%B0%E4%BB%A3%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>后现代主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E5%93%81%E9%92%A6</t>
+  </si>
+  <si>
+    <t>托马斯·品钦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%B7%B4%E6%96%AF</t>
+  </si>
+  <si>
+    <t>约翰·巴斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%94%90%C2%B7%E5%BE%B7%E9%87%8C%E7%BE%85</t>
+  </si>
+  <si>
+    <t>唐·德里罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>叙事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%B0%BC%E6%A0%B9%E7%9A%84%E5%AE%88%E7%81%B5%E5%A4%9C</t>
+  </si>
+  <si>
+    <t>芬尼根的守灵夜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>人文主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%9E%84%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>解构主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%8B%C2%B7%E5%BE%B7%E9%87%8C%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>雅克·德里达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E4%B9%94%E4%BC%8A%E6%96%AF</t>
+  </si>
+  <si>
+    <t>詹姆斯·乔伊斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%96%87</t>
+  </si>
+  <si>
+    <t>欧文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E7%AF%87%E5%B0%8F%E8%AF%B4</t>
+  </si>
+  <si>
+    <t>短篇小说</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%A5%87%E4%BD%9B</t>
+  </si>
+  <si>
+    <t>约翰·奇佛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%AE%A2</t>
+  </si>
+  <si>
+    <t>纽约客</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/J%C2%B7D%C2%B7%E5%A1%9E%E6%9E%97%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>J·D·塞林格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E7%94%B0%E9%87%8C%E7%9A%84%E5%AE%88%E6%9C%9B%E8%80%85</t>
+  </si>
+  <si>
+    <t>麦田里的守望者</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B0%AD%E6%81%A9%E7%BE%8E</t>
+  </si>
+  <si>
+    <t>谭恩美</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%9C%E7%A6%8F%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>喜福会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E6%81%8B</t>
+  </si>
+  <si>
+    <t>同性恋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%A6%AE%C2%B7%E8%8E%AB%E9%87%8C%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>托妮·莫里森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%A0%E5%84%BF</t>
+  </si>
+  <si>
+    <t>宠儿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%92%99%E5%BE%B7%C2%B7%E9%92%B1%E5%BE%B7%E5%8B%92</t>
+  </si>
+  <si>
+    <t>雷蒙德·钱德勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BE%A6%E6%8E%A2%E5%B0%8F%E8%AF%B4</t>
+  </si>
+  <si>
+    <t>侦探小说</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%85%8B%E8%8E%B1%C2%B7%E5%88%98%E6%98%93%E6%96%AF</t>
+  </si>
+  <si>
+    <t>辛克莱·刘易斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%8C%B5%C2%B7%E8%98%AD%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>艾茵·兰德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%95%BE%E5%88%87%E7%88%BE%C2%B7%E5%8D%A1%E9%81%9C</t>
+  </si>
+  <si>
+    <t>蕾切尔·卡逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E8%B5%96%E7%89%B9</t>
+  </si>
+  <si>
+    <t>理查德·赖特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%87%E6%8B%89%C2%B7%E5%87%B1%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>薇拉·凯德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%A5%A7%E6%96%AF%E7%89%B9</t>
+  </si>
+  <si>
+    <t>保罗·奥斯特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%95%A5%E7%89%B9</t>
+  </si>
+  <si>
+    <t>艾略特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E4%BD%9B%E6%B4%9B%E6%96%AF%E7%89%B9</t>
+  </si>
+  <si>
+    <t>罗伯特·佛洛斯特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E5%8D%A1%E6%B4%9B%E6%96%AF%C2%B7%E5%A8%81%E5%BB%89%E5%A7%86%E6%96%AF</t>
+  </si>
+  <si>
+    <t>威廉·卡洛斯·威廉姆斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B8%A9%E5%A4%9A%E6%9E%97%C2%B7%E5%B8%83%E9%B2%81%E5%85%8B%E6%96%AF</t>
+  </si>
+  <si>
+    <t>格温多林·布鲁克斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E5%B0%94%C2%B7%E5%B8%8C%E5%B0%94%E5%BC%97%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>谢尔·希尔弗斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%A8%85%C2%B7%E5%AE%89%E6%9D%B0%E5%8D%A2</t>
+  </si>
+  <si>
+    <t>马娅·安杰卢</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国历史年表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>前哥伦布时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>十三殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国独立宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>美国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
+  </si>
+  <si>
+    <t>美国领土变迁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
+  </si>
+  <si>
+    <t>美国内战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>美国重建时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
+  </si>
+  <si>
+    <t>冷战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>朝鲜战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>非裔美国人民权运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>越南战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>波斯湾战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>反恐战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
+  </si>
+  <si>
+    <t>金融海啸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>美国人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>美国经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国债务上限历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>美国军事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>美国邮政署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>美国科学技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>美国法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美国宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国权利法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>权力分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国副总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国联邦机构列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国总统办事机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
+  </si>
+  <si>
+    <t>美国内阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
+  </si>
+  <si>
+    <t>美国联邦行政部门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>美国政府独立机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦地区法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国司法部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>联邦调查局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>美国情报体系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
+  </si>
+  <si>
+    <t>国家情报总监</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>中央情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>国防情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家地理空间情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家侦察局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家安全局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国空军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国陆军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海军陆战队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国海军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海岸警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>美国国民警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>美国选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>美国选举人团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>第三党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>美国第51州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
+  </si>
+  <si>
+    <t>en-Political status of Puerto Rico</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>红州与蓝州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Purple_America</t>
+  </si>
+  <si>
+    <t>en-Purple America</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
+  </si>
+  <si>
+    <t>山姆大叔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>美国地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>县 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
+  </si>
+  <si>
+    <t>阿巴拉契亚山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>洛矶山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国国家公园列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>中大西洋地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国中西部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>北美大平原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西北部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国河流列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密苏里河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>科罗拉多河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>美国领土</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Agriculture in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
+  </si>
+  <si>
+    <t>美国梦</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
+  </si>
+  <si>
+    <t>en-United States federal budget</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>联邦储备系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国的工会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Social programs in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
+  </si>
+  <si>
+    <t>美国国债</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Taxation in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
+  </si>
+  <si>
+    <t>美国交通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国机场列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
+  </si>
+  <si>
+    <t>美国国道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>州际公路系统</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Unemployment in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
+  </si>
+  <si>
+    <t>华尔街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
+  </si>
+  <si>
+    <t>美国犯罪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
+  </si>
+  <si>
+    <t>美国卫生保健</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国监禁制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国的西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
+  </si>
+  <si>
+    <t>美国社会阶层</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
+  </si>
+  <si>
+    <t>美国LGBT权益</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
+  </si>
+  <si>
+    <t>美国同性婚姻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国家庭结构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>超验主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国饮食文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国民间音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国流行音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
+  </si>
+  <si>
+    <t>好莱坞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>抽象表现主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国社会问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>美国平权行动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国例外主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
+  </si>
+  <si>
+    <t>反美情绪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国死刑制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国枪支政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
+  </si>
+  <si>
+    <t>美国枪枝暴力问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>美国医疗改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
+  </si>
+  <si>
+    <t>美国人权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
+  </si>
+  <si>
+    <t>美墨边界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国的肥胖问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美國文化</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美國歷史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国语言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美國人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E5%8F%8A%E6%B0%91%E6%97%8F</t>
-  </si>
-  <si>
-    <t>美国种族及民族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91%E7%A5%9E%E8%A9%B1</t>
-  </si>
-  <si>
-    <t>美洲原住民神話</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F</t>
-  </si>
-  <si>
-    <t>美國飲食</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AF%80%E6%97%A5</t>
-  </si>
-  <si>
-    <t>美國節日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>美國宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%BB%BA%E7%AF%89</t>
-  </si>
-  <si>
-    <t>美國建築</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%87%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>美國文學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%BC%AB%E7%94%BB%E4%B9%A6</t>
-  </si>
-  <si>
-    <t>美国漫画书</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9F%B3%E6%A8%82</t>
-  </si>
-  <si>
-    <t>美國音樂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%AB%94%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美國體育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%AA%92%E9%AB%94</t>
-  </si>
-  <si>
-    <t>美國媒體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>美国电影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
-  </si>
-  <si>
-    <t>美國電視</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%97%97</t>
-  </si>
-  <si>
-    <t>美國國旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%BE%BD</t>
-  </si>
-  <si>
-    <t>美國國徽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%B4%80%E5%BF%B5%E5%8D%80</t>
-  </si>
-  <si>
-    <t>國家紀念區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%91%E4%BB%AC%E4%BF%A1%E4%BB%B0%E4%B8%8A%E5%B8%9D</t>
-  </si>
-  <si>
-    <t>我们信仰上帝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%9D%A1%E6%97%97_(%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%AD%8C)</t>
-  </si>
-  <si>
-    <t>星条旗 (美国国歌)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A0%AD%E6%B5%B7%E9%B5%B0</t>
-  </si>
-  <si>
-    <t>白頭海鵰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>Template talk-美国文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>英语文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>欧洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%C2%B7%E6%AD%90%E6%96%87</t>
-  </si>
-  <si>
-    <t>華盛頓·歐文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E4%BC%AF%E5%A4%A7%E5%A4%A2</t>
-  </si>
-  <si>
-    <t>李伯大夢</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%89%E7%9D%A1%E8%B0%B7%E4%BC%A0%E5%A5%87</t>
-  </si>
-  <si>
-    <t>沉睡谷传奇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
-  </si>
-  <si>
-    <t>英格兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E7%89%B9%E5%B0%8F%E8%AF%B4</t>
-  </si>
-  <si>
-    <t>哥特小说</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%96%87</t>
-  </si>
-  <si>
-    <t>散文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%BB%E6%96%87</t>
-  </si>
-  <si>
-    <t>韻文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A7%A2%E6%96%87</t>
-  </si>
-  <si>
-    <t>駢文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%97%E6%AD%8C</t>
-  </si>
-  <si>
-    <t>诗歌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%8D_(%E6%96%87%E5%AD%A6)</t>
-  </si>
-  <si>
-    <t>词 (文学)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%9B%B2</t>
-  </si>
-  <si>
-    <t>元曲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E8%A9%9E</t>
-  </si>
-  <si>
-    <t>歌詞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%AF%B4</t>
-  </si>
-  <si>
-    <t>小说</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E7%AF%87%E5%B0%8F%E8%AA%AA</t>
-  </si>
-  <si>
-    <t>長篇小說</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%8F%E5%89%A7</t>
-  </si>
-  <si>
-    <t>戏剧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E8%A8%98</t>
-  </si>
-  <si>
-    <t>傳記</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%84%BF%E7%AB%A5%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>儿童文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%A6%E6%B5%81%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>文学流派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%96%87%E5%AD%B8%E7%90%86%E8%AB%96</t>
-  </si>
-  <si>
-    <t>西方文學理論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%A6%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>文学史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>古希腊文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>古罗马文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%9F%83%E5%8F%8A%E6%96%87%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>古埃及文學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>爱尔兰文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%96%87%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>英國文學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E6%96%87%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>義大利文學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>西班牙文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>印度文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>中国文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%96%87%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>台灣文學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%96%87%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>香港文學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>朝鲜文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>韩国文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%96%87%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>德國文學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>波斯文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>日本文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>法语文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2%E6%96%87%E5%AD%A6%E7%88%86%E7%82%B8</t>
-  </si>
-  <si>
-    <t>拉丁美洲文学爆炸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9B%BD%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>俄国文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%AA%AA%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>小說家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9A%A8%E7%AD%86%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>隨筆家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%A7%E4%BD%9C%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>剧作家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%A9%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>詩人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%9E%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>詞人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%9B%B2%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>作曲家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%AB%E8%A9%9E%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>填詞人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%96%87%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>散文家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E4%BD%9C%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>网络作家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E4%BC%A6%C2%B7%E5%9D%A1</t>
-  </si>
-  <si>
-    <t>爱伦·坡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%B0%94%E6%A0%BC%E8%A1%97%E5%87%B6%E6%9D%80%E6%A1%88</t>
-  </si>
-  <si>
-    <t>莫尔格街凶杀案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>心理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%92%92%E5%B0%BC%E7%88%BE%C2%B7%E9%9C%8D%E6%A1%91</t>
-  </si>
-  <si>
-    <t>納撒尼爾·霍桑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E5%BE%81%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>象征主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%A7%98%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>神秘主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E5%A5%87</t>
-  </si>
-  <si>
-    <t>传奇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%93%E8%A8%80</t>
-  </si>
-  <si>
-    <t>寓言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
-  </si>
-  <si>
-    <t>新英格兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E5%AD%97</t>
-  </si>
-  <si>
-    <t>红字</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E5%A5%B8</t>
-  </si>
-  <si>
-    <t>通奸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E6%A1%91</t>
-  </si>
-  <si>
-    <t>霍桑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E6%9B%BC%C2%B7%E6%A2%85%E7%88%BE%E7%B6%AD%E7%88%BE</t>
-  </si>
-  <si>
-    <t>赫爾曼·梅爾維爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>哲学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%AF%A8%E8%A8%98</t>
-  </si>
-  <si>
-    <t>白鯨記</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%B0%94%E7%BB%B4%E5%B0%94</t>
-  </si>
-  <si>
-    <t>梅尔维尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6</t>
-  </si>
-  <si>
-    <t>联邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B0%94%E5%A4%AB%C2%B7%E6%B2%83%E5%B0%94%E5%A4%9A%C2%B7%E7%88%B1%E9%BB%98%E7%94%9F</t>
-  </si>
-  <si>
-    <t>拉尔夫·沃尔多·爱默生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6</t>
-  </si>
-  <si>
-    <t>自然</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E9%BB%98%E7%94%9F</t>
-  </si>
-  <si>
-    <t>爱默生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%AD%E7%BD%97</t>
-  </si>
-  <si>
-    <t>梭罗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
-  </si>
-  <si>
-    <t>新教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%B0%94%E7%99%BB%E6%B9%96</t>
-  </si>
-  <si>
-    <t>瓦尔登湖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%C2%B7%E5%90%90%E6%B8%A9</t>
-  </si>
-  <si>
-    <t>马克·吐温</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密苏里州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A0%91%E7%AB%A5%E6%B5%81%E6%B5%AA%E8%A8%98</t>
-  </si>
-  <si>
-    <t>頑童流浪記</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>新闻学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E8%A8%80</t>
-  </si>
-  <si>
-    <t>方言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%A9%B9%E5%A7%86%E6%96%AF</t>
-  </si>
-  <si>
-    <t>亨利·詹姆斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>纽约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%89%B9%C2%B7%E6%83%A0%E7%89%B9%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>沃尔特·惠特曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>南北战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%89%E8%91%89%E9%9B%86</t>
-  </si>
-  <si>
-    <t>草葉集</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>民主</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/D%C2%B7H%C2%B7%E5%8A%B3%E4%BC%A6%E6%96%AF</t>
-  </si>
-  <si>
-    <t>D·H·劳伦斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E7%89%B9%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>惠特曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%B1%B3%E8%8E%89%C2%B7%E8%BF%AA%E6%9B%B4%E7%94%9F</t>
-  </si>
-  <si>
-    <t>埃米莉·迪更生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%96%A9%E8%AB%B8%E5%A1%9E</t>
-  </si>
-  <si>
-    <t>馬薩諸塞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%81%E7%A4%BE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>上流社会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%BF%AA%E4%B8%9D%C2%B7%E5%8D%8E%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>伊迪丝·华顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%AF%E7%9C%9F%E5%B9%B4%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>纯真年代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E5%85%8B%E8%90%8A%E6%81%A9</t>
-  </si>
-  <si>
-    <t>史蒂芬·克萊恩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E8%89%B2%E8%8B%B1%E5%8B%87%E5%8B%8B%E7%AB%A0</t>
-  </si>
-  <si>
-    <t>红色英勇勋章</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A6%93%E5%A5%B3</t>
-  </si>
-  <si>
-    <t>妓女</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A7%E5%A4%9A%C2%B7%E5%BE%B7%E8%90%8A%E8%B3%BD</t>
-  </si>
-  <si>
-    <t>西奧多·德萊賽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
-  </si>
-  <si>
-    <t>芝加哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
-  </si>
-  <si>
-    <t>巴黎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%89%B9%E9%B2%81%E5%BE%B7%C2%B7%E6%96%AF%E6%B3%B0%E5%9B%A0</t>
-  </si>
-  <si>
-    <t>格特鲁德·斯泰因</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E4%BD%93%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>立体主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
-  </si>
-  <si>
-    <t>爵士乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E8%89%BA%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>现代艺术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%85%B9%E6%8B%89%C2%B7%E5%BA%9E%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>艾兹拉·庞德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>爱达荷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A6%AC%E6%96%AF%C2%B7%E6%96%AF%E7%89%B9%E7%88%BE%E9%82%A3%E6%96%AF%C2%B7%E8%89%BE%E7%95%A5%E7%89%B9</t>
-  </si>
-  <si>
-    <t>托馬斯·斯特爾那斯·艾略特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%92%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>荒原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
-  </si>
-  <si>
-    <t>第一次世界大战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E8%B4%9D%E5%B0%94%E6%96%87%E5%AD%A6%E5%A5%96</t>
-  </si>
-  <si>
-    <t>诺贝尔文学奖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E6%BB%8B%E5%82%91%E7%BE%85</t>
-  </si>
-  <si>
-    <t>費滋傑羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BA%A8%E5%B0%8F%E5%82%B3</t>
-  </si>
-  <si>
-    <t>大亨小傳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E5%86%85%E6%96%AF%E7%89%B9%C2%B7%E6%B5%B7%E6%98%8E%E5%A8%81</t>
-  </si>
-  <si>
-    <t>欧内斯特·海明威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%91%E8%AD%B7%E8%BB%8A</t>
-  </si>
-  <si>
-    <t>救護車</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E5%88%AB%E4%BA%86%EF%BC%8C%E6%AD%A6%E5%99%A8</t>
-  </si>
-  <si>
-    <t>永别了，武器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%8F%B2%E5%9D%A6%E8%B2%9D%E5%85%8B</t>
-  </si>
-  <si>
-    <t>約翰·史坦貝克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>加利福尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%A6%E8%AF%84%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>文学评论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%A4%E6%80%92%E7%9A%84%E8%91%A1%E8%90%84</t>
-  </si>
-  <si>
-    <t>愤怒的葡萄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>俄克拉荷马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%BC%A0%E4%B9%8B%E9%96%93</t>
-  </si>
-  <si>
-    <t>人鼠之間</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%94%B8%E5%9C%92%E6%9D%B1</t>
-  </si>
-  <si>
-    <t>伊甸園東</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%91%C2%B7%E5%A5%A5%E5%B0%BC%E5%B0%94</t>
-  </si>
-  <si>
-    <t>尤金·奥尼尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BB%8F</t>
-  </si>
-  <si>
-    <t>圣经</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%C2%B7%E5%A8%81%E5%BB%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>田纳西·威廉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%B2%E6%9C%9B%E5%8F%B7%E8%A1%97%E8%BD%A6</t>
-  </si>
-  <si>
-    <t>欲望号街车</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E9%96%80%E5%B7%A7%E5%A9%A6</t>
-  </si>
-  <si>
-    <t>朱門巧婦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%98%8E%E5%A8%81</t>
-  </si>
-  <si>
-    <t>海明威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%A6%8F%E5%85%8B%E7%B4%8D</t>
-  </si>
-  <si>
-    <t>威廉·福克納</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密西西比河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AF%86%E6%B5%81</t>
-  </si>
-  <si>
-    <t>意识流</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%A7%E5%93%97%E4%B8%8E%E9%AA%9A%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>喧哗与骚动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%BC%E6%B2%99%E9%BE%8D%EF%BC%8C%E6%8A%BC%E6%B2%99%E9%BE%8D%EF%BC%81</t>
-  </si>
-  <si>
-    <t>押沙龍，押沙龍！</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BB%E5%90%A7%EF%BC%8C%E6%91%A9%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>去吧，摩西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>福克纳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E9%B2%81%E9%97%A8%C2%B7%E5%8D%A1%E6%B3%A2%E7%89%B9</t>
-  </si>
-  <si>
-    <t>杜鲁门·卡波特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%85%B0%E7%BA%B3%E9%87%8C%C2%B7%E5%A5%A5%E5%BA%B7%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>弗兰纳里·奥康纳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%AA%E5%AE%9E%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>纪实文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E8%A1%80</t>
-  </si>
-  <si>
-    <t>冷血</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E6%9B%BC%C2%B7%E6%A2%85%E5%8B%92</t>
-  </si>
-  <si>
-    <t>诺曼·梅勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%A4%E5%A7%86%C2%B7%E6%B2%83%E5%B0%94%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>汤姆·沃尔夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%A7%92%E5%A4%A7%E6%A5%BC</t>
-  </si>
-  <si>
-    <t>五角大楼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E5%85%88%E9%94%8B</t>
-  </si>
-  <si>
-    <t>太空先锋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%96%B0%E9%97%BB%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>新新闻主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
-  </si>
-  <si>
-    <t>天主教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%9D</t>
-  </si>
-  <si>
-    <t>上帝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E9%AC%BC</t>
-  </si>
-  <si>
-    <t>魔鬼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%82%B2%E5%96%9C%E5%89%A7</t>
-  </si>
-  <si>
-    <t>悲喜剧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>曼哈顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>哈莱姆区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
-  </si>
-  <si>
-    <t>哈莱姆文艺复兴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E6%96%AF%E9%A1%BF%C2%B7%E4%BC%91%E6%96%AF</t>
-  </si>
-  <si>
-    <t>朗斯顿·休斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E6%8B%89%C2%B7%E5%B0%BC%E5%B0%94%C2%B7%E8%B5%AB%E6%96%AF%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>佐拉·尼尔·赫斯顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
-  </si>
-  <si>
-    <t>第二次世界大战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%B2%8D%E5%BE%B7%E6%B8%A9</t>
-  </si>
-  <si>
-    <t>詹姆斯·鲍德温</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>种族主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E8%A7%A3%E6%94%BE</t>
-  </si>
-  <si>
-    <t>性解放</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9A%90%E5%BD%A2%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>隐形人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>非裔美国人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>垮掉的一代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E5%93%81</t>
-  </si>
-  <si>
-    <t>毒品</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%85%92%E7%B2%BE</t>
-  </si>
-  <si>
-    <t>酒精</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BC%A6%C2%B7%E9%87%91%E6%96%AF%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>艾伦·金斯堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%C2%B7%E5%85%8B%E9%B2%81%E4%BA%9A%E5%85%8B</t>
-  </si>
-  <si>
-    <t>杰克·克鲁亚克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E8%B7%AF%E4%B8%8A</t>
-  </si>
-  <si>
-    <t>在路上</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E7%8E%B0%E4%BB%A3%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>后现代主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E5%93%81%E9%92%A6</t>
-  </si>
-  <si>
-    <t>托马斯·品钦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%B7%B4%E6%96%AF</t>
-  </si>
-  <si>
-    <t>约翰·巴斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%94%90%C2%B7%E5%BE%B7%E9%87%8C%E7%BE%85</t>
-  </si>
-  <si>
-    <t>唐·德里羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>叙事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%B0%BC%E6%A0%B9%E7%9A%84%E5%AE%88%E7%81%B5%E5%A4%9C</t>
-  </si>
-  <si>
-    <t>芬尼根的守灵夜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>人文主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%9E%84%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>解构主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%8B%C2%B7%E5%BE%B7%E9%87%8C%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>雅克·德里达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E4%B9%94%E4%BC%8A%E6%96%AF</t>
-  </si>
-  <si>
-    <t>詹姆斯·乔伊斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%96%87</t>
-  </si>
-  <si>
-    <t>欧文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E7%AF%87%E5%B0%8F%E8%AF%B4</t>
-  </si>
-  <si>
-    <t>短篇小说</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%A5%87%E4%BD%9B</t>
-  </si>
-  <si>
-    <t>約翰·奇佛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%AE%A2</t>
-  </si>
-  <si>
-    <t>纽约客</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/J%C2%B7D%C2%B7%E5%A1%9E%E6%9E%97%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>J·D·塞林格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E7%94%B0%E9%87%8C%E7%9A%84%E5%AE%88%E6%9C%9B%E8%80%85</t>
-  </si>
-  <si>
-    <t>麦田里的守望者</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B0%AD%E6%81%A9%E7%BE%8E</t>
-  </si>
-  <si>
-    <t>谭恩美</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%9C%E7%A6%8F%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>喜福会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E6%81%8B</t>
-  </si>
-  <si>
-    <t>同性恋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%A6%AE%C2%B7%E8%8E%AB%E9%87%8C%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>托妮·莫里森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%A0%E5%84%BF</t>
-  </si>
-  <si>
-    <t>宠儿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%92%99%E5%BE%B7%C2%B7%E9%92%B1%E5%BE%B7%E5%8B%92</t>
-  </si>
-  <si>
-    <t>雷蒙德·钱德勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BE%A6%E6%8E%A2%E5%B0%8F%E8%AF%B4</t>
-  </si>
-  <si>
-    <t>侦探小说</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%85%8B%E8%8E%B1%C2%B7%E5%88%98%E6%98%93%E6%96%AF</t>
-  </si>
-  <si>
-    <t>辛克莱·刘易斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%8C%B5%C2%B7%E8%98%AD%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>艾茵·蘭德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%95%BE%E5%88%87%E7%88%BE%C2%B7%E5%8D%A1%E9%81%9C</t>
-  </si>
-  <si>
-    <t>蕾切爾·卡遜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E8%B5%96%E7%89%B9</t>
-  </si>
-  <si>
-    <t>理查德·赖特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%87%E6%8B%89%C2%B7%E5%87%B1%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>薇拉·凱德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%A5%A7%E6%96%AF%E7%89%B9</t>
-  </si>
-  <si>
-    <t>保羅·奧斯特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%95%A5%E7%89%B9</t>
-  </si>
-  <si>
-    <t>艾略特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E4%BD%9B%E6%B4%9B%E6%96%AF%E7%89%B9</t>
-  </si>
-  <si>
-    <t>羅伯特·佛洛斯特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E5%8D%A1%E6%B4%9B%E6%96%AF%C2%B7%E5%A8%81%E5%BB%89%E5%A7%86%E6%96%AF</t>
-  </si>
-  <si>
-    <t>威廉·卡洛斯·威廉姆斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B8%A9%E5%A4%9A%E6%9E%97%C2%B7%E5%B8%83%E9%B2%81%E5%85%8B%E6%96%AF</t>
-  </si>
-  <si>
-    <t>格温多林·布鲁克斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E5%B0%94%C2%B7%E5%B8%8C%E5%B0%94%E5%BC%97%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>谢尔·希尔弗斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%A8%85%C2%B7%E5%AE%89%E6%9D%B0%E5%8D%A2</t>
-  </si>
-  <si>
-    <t>马娅·安杰卢</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国历史年表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>前哥倫布時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>十三殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国独立宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>美国革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
-  </si>
-  <si>
-    <t>美國領土變遷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
-  </si>
-  <si>
-    <t>美国内战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>美国重建时期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>大萧条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
-  </si>
-  <si>
-    <t>冷战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>朝鲜战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>非裔美国人民权运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>越南战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>波斯灣戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>反恐战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
-  </si>
-  <si>
-    <t>金融海嘯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>美国人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>美国经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国债务上限历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>美国军事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>美國郵政署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>美国科学技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美国联邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>美国法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国权利法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>權力分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国国会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国副总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國聯邦機構列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国总统办事机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
-  </si>
-  <si>
-    <t>美国内阁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
-  </si>
-  <si>
-    <t>美国联邦行政部门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>美國政府獨立機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦地区法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国司法部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>联邦调查局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>美國情報體系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
-  </si>
-  <si>
-    <t>國家情報總監</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中央情报局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>國防情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國國家地理空間情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家侦察局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家安全局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国空军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国陆军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海军陆战队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国海军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海岸警卫队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>美國國民警衛隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美国政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>美國選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>美国选举人团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>共和党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>第三党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>美國第51州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
-  </si>
-  <si>
-    <t>en-Political status of Puerto Rico</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紅州與藍州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Purple_America</t>
-  </si>
-  <si>
-    <t>en-Purple America</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
-  </si>
-  <si>
-    <t>山姆大叔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>美国地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>县 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
-  </si>
-  <si>
-    <t>阿巴拉契亚山脉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>洛磯山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国国家公园列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新英格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>中大西洋地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國中西部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>北美大平原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西北部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国河流列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密苏里河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>科罗拉多河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>美国领土</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Agriculture in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
-  </si>
-  <si>
-    <t>美國夢</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
-  </si>
-  <si>
-    <t>en-United States federal budget</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>聯邦儲備系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國的工會</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Social programs in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
-  </si>
-  <si>
-    <t>美國國債</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Taxation in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
-  </si>
-  <si>
-    <t>美國交通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国机场列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
-  </si>
-  <si>
-    <t>美國國道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>州際公路系統</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Unemployment in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
-  </si>
-  <si>
-    <t>华尔街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
-  </si>
-  <si>
-    <t>美国犯罪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
-  </si>
-  <si>
-    <t>美国卫生保健</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国监禁制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国英语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国的西班牙语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
-  </si>
-  <si>
-    <t>美国媒体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美国人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
-  </si>
-  <si>
-    <t>美国节日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
-  </si>
-  <si>
-    <t>美國社會階層</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
-  </si>
-  <si>
-    <t>美国梦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国体育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
-  </si>
-  <si>
-    <t>美國LGBT權益</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
-  </si>
-  <si>
-    <t>美国同性婚姻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国家庭结构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美国文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>超验主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
-  </si>
-  <si>
-    <t>美国建筑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美國飲食文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>美国国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国民间音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国流行音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
-  </si>
-  <si>
-    <t>好莱坞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>抽象表現主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国社会问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>美国平权行动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国例外主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
-  </si>
-  <si>
-    <t>反美情绪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国死刑制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美國槍支政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
-  </si>
-  <si>
-    <t>美國槍枝暴力問題</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>美國醫療改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
-  </si>
-  <si>
-    <t>美国人权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
-  </si>
-  <si>
-    <t>美墨邊界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国的肥胖问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2586,7 +2556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I379"/>
+  <dimension ref="A1:I380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,7 +2900,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -3278,7 +3248,7 @@
         <v>48</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -3307,7 +3277,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H25" t="s">
         <v>4</v>
@@ -3336,7 +3306,7 @@
         <v>52</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -3365,7 +3335,7 @@
         <v>54</v>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -3452,7 +3422,7 @@
         <v>60</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
@@ -3481,7 +3451,7 @@
         <v>62</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -3510,7 +3480,7 @@
         <v>64</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -3539,7 +3509,7 @@
         <v>66</v>
       </c>
       <c r="G33" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -3568,7 +3538,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -3626,7 +3596,7 @@
         <v>72</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -3655,7 +3625,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -3684,7 +3654,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -3713,7 +3683,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
@@ -3742,7 +3712,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
@@ -3771,7 +3741,7 @@
         <v>82</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -3800,7 +3770,7 @@
         <v>84</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
@@ -3829,7 +3799,7 @@
         <v>86</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -4583,7 +4553,7 @@
         <v>138</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
@@ -4612,7 +4582,7 @@
         <v>140</v>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -4641,7 +4611,7 @@
         <v>142</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -4670,7 +4640,7 @@
         <v>144</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -4780,13 +4750,13 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -4809,13 +4779,13 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G77" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -4838,13 +4808,13 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -4902,7 +4872,7 @@
         <v>156</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -4931,7 +4901,7 @@
         <v>158</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -5163,7 +5133,7 @@
         <v>174</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -5192,7 +5162,7 @@
         <v>176</v>
       </c>
       <c r="G90" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -5221,7 +5191,7 @@
         <v>178</v>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -5279,7 +5249,7 @@
         <v>182</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -5308,7 +5278,7 @@
         <v>184</v>
       </c>
       <c r="G94" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
@@ -5337,7 +5307,7 @@
         <v>186</v>
       </c>
       <c r="G95" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -5366,7 +5336,7 @@
         <v>188</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -5424,7 +5394,7 @@
         <v>192</v>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -5453,7 +5423,7 @@
         <v>194</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -5482,7 +5452,7 @@
         <v>196</v>
       </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -5511,7 +5481,7 @@
         <v>198</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -5540,7 +5510,7 @@
         <v>200</v>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -5569,7 +5539,7 @@
         <v>202</v>
       </c>
       <c r="G103" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -5714,7 +5684,7 @@
         <v>212</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -5743,7 +5713,7 @@
         <v>214</v>
       </c>
       <c r="G109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -5772,7 +5742,7 @@
         <v>216</v>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -5801,7 +5771,7 @@
         <v>218</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -5888,7 +5858,7 @@
         <v>224</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -5917,7 +5887,7 @@
         <v>226</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -5946,7 +5916,7 @@
         <v>228</v>
       </c>
       <c r="G116" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -5975,7 +5945,7 @@
         <v>230</v>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -6004,7 +5974,7 @@
         <v>232</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -6033,7 +6003,7 @@
         <v>234</v>
       </c>
       <c r="G119" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -6352,7 +6322,7 @@
         <v>256</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -6381,7 +6351,7 @@
         <v>258</v>
       </c>
       <c r="G131" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -6410,7 +6380,7 @@
         <v>260</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -6439,7 +6409,7 @@
         <v>262</v>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -6497,7 +6467,7 @@
         <v>266</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -6549,13 +6519,13 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -6578,13 +6548,13 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="G138" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -6613,7 +6583,7 @@
         <v>272</v>
       </c>
       <c r="G139" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -6642,7 +6612,7 @@
         <v>274</v>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -6787,7 +6757,7 @@
         <v>284</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -6816,7 +6786,7 @@
         <v>286</v>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -6955,13 +6925,13 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>83</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>84</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -6984,13 +6954,13 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>85</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>86</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -7135,7 +7105,7 @@
         <v>306</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -7164,7 +7134,7 @@
         <v>308</v>
       </c>
       <c r="G158" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -7193,7 +7163,7 @@
         <v>310</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -7222,7 +7192,7 @@
         <v>312</v>
       </c>
       <c r="G160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -7251,7 +7221,7 @@
         <v>314</v>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -7338,7 +7308,7 @@
         <v>320</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -7367,7 +7337,7 @@
         <v>322</v>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -7396,7 +7366,7 @@
         <v>324</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -7454,7 +7424,7 @@
         <v>328</v>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
@@ -7512,7 +7482,7 @@
         <v>332</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -7541,7 +7511,7 @@
         <v>334</v>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -7657,7 +7627,7 @@
         <v>342</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -7686,7 +7656,7 @@
         <v>344</v>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -7802,7 +7772,7 @@
         <v>352</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -7831,7 +7801,7 @@
         <v>354</v>
       </c>
       <c r="G181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -7889,7 +7859,7 @@
         <v>358</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -7918,7 +7888,7 @@
         <v>360</v>
       </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -7947,7 +7917,7 @@
         <v>362</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -7976,7 +7946,7 @@
         <v>364</v>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -8005,7 +7975,7 @@
         <v>366</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -8034,7 +8004,7 @@
         <v>368</v>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -8063,7 +8033,7 @@
         <v>370</v>
       </c>
       <c r="G189" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -8092,7 +8062,7 @@
         <v>372</v>
       </c>
       <c r="G190" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -8121,7 +8091,7 @@
         <v>374</v>
       </c>
       <c r="G191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -8150,7 +8120,7 @@
         <v>376</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -8179,7 +8149,7 @@
         <v>378</v>
       </c>
       <c r="G193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -8237,7 +8207,7 @@
         <v>382</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -8266,7 +8236,7 @@
         <v>384</v>
       </c>
       <c r="G196" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -8295,7 +8265,7 @@
         <v>386</v>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -8353,7 +8323,7 @@
         <v>390</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -8382,7 +8352,7 @@
         <v>392</v>
       </c>
       <c r="G200" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -8527,7 +8497,7 @@
         <v>402</v>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -8556,7 +8526,7 @@
         <v>404</v>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -8585,7 +8555,7 @@
         <v>406</v>
       </c>
       <c r="G207" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -9107,7 +9077,7 @@
         <v>442</v>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -9130,13 +9100,13 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>189</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>190</v>
       </c>
       <c r="G226" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -9159,10 +9129,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="F227" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9188,10 +9158,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>227</v>
+        <v>443</v>
       </c>
       <c r="F228" t="s">
-        <v>228</v>
+        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9336,10 +9306,10 @@
         <v>453</v>
       </c>
       <c r="F233" t="s">
-        <v>454</v>
+        <v>6</v>
       </c>
       <c r="G233" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -9362,13 +9332,13 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>454</v>
+      </c>
+      <c r="F234" t="s">
         <v>455</v>
       </c>
-      <c r="F234" t="s">
-        <v>456</v>
-      </c>
       <c r="G234" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -9391,10 +9361,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>456</v>
+      </c>
+      <c r="F235" t="s">
         <v>457</v>
-      </c>
-      <c r="F235" t="s">
-        <v>458</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9420,10 +9390,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>458</v>
+      </c>
+      <c r="F236" t="s">
         <v>459</v>
-      </c>
-      <c r="F236" t="s">
-        <v>460</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9449,10 +9419,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>460</v>
+      </c>
+      <c r="F237" t="s">
         <v>461</v>
-      </c>
-      <c r="F237" t="s">
-        <v>462</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9478,10 +9448,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>462</v>
+      </c>
+      <c r="F238" t="s">
         <v>463</v>
-      </c>
-      <c r="F238" t="s">
-        <v>464</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9507,10 +9477,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>464</v>
+      </c>
+      <c r="F239" t="s">
         <v>465</v>
-      </c>
-      <c r="F239" t="s">
-        <v>466</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9536,10 +9506,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>466</v>
+      </c>
+      <c r="F240" t="s">
         <v>467</v>
-      </c>
-      <c r="F240" t="s">
-        <v>468</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9565,10 +9535,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>468</v>
+      </c>
+      <c r="F241" t="s">
         <v>469</v>
-      </c>
-      <c r="F241" t="s">
-        <v>470</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9594,10 +9564,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>470</v>
+      </c>
+      <c r="F242" t="s">
         <v>471</v>
-      </c>
-      <c r="F242" t="s">
-        <v>472</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9623,10 +9593,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>472</v>
+      </c>
+      <c r="F243" t="s">
         <v>473</v>
-      </c>
-      <c r="F243" t="s">
-        <v>474</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9652,10 +9622,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>474</v>
+      </c>
+      <c r="F244" t="s">
         <v>475</v>
-      </c>
-      <c r="F244" t="s">
-        <v>476</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9681,10 +9651,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>476</v>
+      </c>
+      <c r="F245" t="s">
         <v>477</v>
-      </c>
-      <c r="F245" t="s">
-        <v>478</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9710,10 +9680,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>478</v>
+      </c>
+      <c r="F246" t="s">
         <v>479</v>
-      </c>
-      <c r="F246" t="s">
-        <v>480</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9739,10 +9709,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>480</v>
+      </c>
+      <c r="F247" t="s">
         <v>481</v>
-      </c>
-      <c r="F247" t="s">
-        <v>482</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9768,10 +9738,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>482</v>
+      </c>
+      <c r="F248" t="s">
         <v>483</v>
-      </c>
-      <c r="F248" t="s">
-        <v>484</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9797,10 +9767,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>484</v>
+      </c>
+      <c r="F249" t="s">
         <v>485</v>
-      </c>
-      <c r="F249" t="s">
-        <v>486</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9826,13 +9796,13 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>486</v>
+      </c>
+      <c r="F250" t="s">
         <v>487</v>
       </c>
-      <c r="F250" t="s">
-        <v>488</v>
-      </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -9855,10 +9825,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>488</v>
+      </c>
+      <c r="F251" t="s">
         <v>489</v>
-      </c>
-      <c r="F251" t="s">
-        <v>490</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -9884,13 +9854,13 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>490</v>
+      </c>
+      <c r="F252" t="s">
         <v>491</v>
       </c>
-      <c r="F252" t="s">
-        <v>492</v>
-      </c>
       <c r="G252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -9913,13 +9883,13 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>492</v>
+      </c>
+      <c r="F253" t="s">
         <v>493</v>
       </c>
-      <c r="F253" t="s">
-        <v>494</v>
-      </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -9942,13 +9912,13 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>494</v>
+      </c>
+      <c r="F254" t="s">
         <v>495</v>
       </c>
-      <c r="F254" t="s">
-        <v>496</v>
-      </c>
       <c r="G254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H254" t="s">
         <v>4</v>
@@ -9971,10 +9941,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>496</v>
+      </c>
+      <c r="F255" t="s">
         <v>497</v>
-      </c>
-      <c r="F255" t="s">
-        <v>498</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10000,10 +9970,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>498</v>
+      </c>
+      <c r="F256" t="s">
         <v>499</v>
-      </c>
-      <c r="F256" t="s">
-        <v>500</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10029,10 +9999,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>500</v>
+      </c>
+      <c r="F257" t="s">
         <v>501</v>
-      </c>
-      <c r="F257" t="s">
-        <v>502</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10058,10 +10028,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>502</v>
+      </c>
+      <c r="F258" t="s">
         <v>503</v>
-      </c>
-      <c r="F258" t="s">
-        <v>504</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10087,10 +10057,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>504</v>
+      </c>
+      <c r="F259" t="s">
         <v>505</v>
-      </c>
-      <c r="F259" t="s">
-        <v>506</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10116,10 +10086,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>506</v>
+      </c>
+      <c r="F260" t="s">
         <v>507</v>
-      </c>
-      <c r="F260" t="s">
-        <v>508</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10145,10 +10115,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>508</v>
+      </c>
+      <c r="F261" t="s">
         <v>509</v>
-      </c>
-      <c r="F261" t="s">
-        <v>510</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10174,10 +10144,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>510</v>
+      </c>
+      <c r="F262" t="s">
         <v>511</v>
-      </c>
-      <c r="F262" t="s">
-        <v>512</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10203,10 +10173,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>512</v>
+      </c>
+      <c r="F263" t="s">
         <v>513</v>
-      </c>
-      <c r="F263" t="s">
-        <v>514</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10232,10 +10202,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>514</v>
+      </c>
+      <c r="F264" t="s">
         <v>515</v>
-      </c>
-      <c r="F264" t="s">
-        <v>516</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10261,10 +10231,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>516</v>
+      </c>
+      <c r="F265" t="s">
         <v>517</v>
-      </c>
-      <c r="F265" t="s">
-        <v>518</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10290,10 +10260,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>518</v>
+      </c>
+      <c r="F266" t="s">
         <v>519</v>
-      </c>
-      <c r="F266" t="s">
-        <v>520</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10319,13 +10289,13 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>520</v>
+      </c>
+      <c r="F267" t="s">
         <v>521</v>
       </c>
-      <c r="F267" t="s">
-        <v>522</v>
-      </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -10348,13 +10318,13 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>522</v>
+      </c>
+      <c r="F268" t="s">
         <v>523</v>
       </c>
-      <c r="F268" t="s">
-        <v>524</v>
-      </c>
       <c r="G268" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -10377,10 +10347,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>524</v>
+      </c>
+      <c r="F269" t="s">
         <v>525</v>
-      </c>
-      <c r="F269" t="s">
-        <v>526</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10406,10 +10376,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>526</v>
+      </c>
+      <c r="F270" t="s">
         <v>527</v>
-      </c>
-      <c r="F270" t="s">
-        <v>528</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10435,10 +10405,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>528</v>
+      </c>
+      <c r="F271" t="s">
         <v>529</v>
-      </c>
-      <c r="F271" t="s">
-        <v>530</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10464,10 +10434,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>530</v>
+      </c>
+      <c r="F272" t="s">
         <v>531</v>
-      </c>
-      <c r="F272" t="s">
-        <v>532</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10493,10 +10463,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>532</v>
+      </c>
+      <c r="F273" t="s">
         <v>533</v>
-      </c>
-      <c r="F273" t="s">
-        <v>534</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10522,10 +10492,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>534</v>
+      </c>
+      <c r="F274" t="s">
         <v>535</v>
-      </c>
-      <c r="F274" t="s">
-        <v>536</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10551,10 +10521,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>536</v>
+      </c>
+      <c r="F275" t="s">
         <v>537</v>
-      </c>
-      <c r="F275" t="s">
-        <v>538</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10580,10 +10550,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>538</v>
+      </c>
+      <c r="F276" t="s">
         <v>539</v>
-      </c>
-      <c r="F276" t="s">
-        <v>540</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10609,10 +10579,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>540</v>
+      </c>
+      <c r="F277" t="s">
         <v>541</v>
-      </c>
-      <c r="F277" t="s">
-        <v>542</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10638,13 +10608,13 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>542</v>
+      </c>
+      <c r="F278" t="s">
         <v>543</v>
       </c>
-      <c r="F278" t="s">
-        <v>544</v>
-      </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -10667,13 +10637,13 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>544</v>
+      </c>
+      <c r="F279" t="s">
         <v>545</v>
       </c>
-      <c r="F279" t="s">
-        <v>546</v>
-      </c>
       <c r="G279" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H279" t="s">
         <v>4</v>
@@ -10696,10 +10666,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>546</v>
+      </c>
+      <c r="F280" t="s">
         <v>547</v>
-      </c>
-      <c r="F280" t="s">
-        <v>548</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10725,10 +10695,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>548</v>
+      </c>
+      <c r="F281" t="s">
         <v>549</v>
-      </c>
-      <c r="F281" t="s">
-        <v>550</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10754,10 +10724,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>550</v>
+      </c>
+      <c r="F282" t="s">
         <v>551</v>
-      </c>
-      <c r="F282" t="s">
-        <v>552</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10783,10 +10753,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>552</v>
+      </c>
+      <c r="F283" t="s">
         <v>553</v>
-      </c>
-      <c r="F283" t="s">
-        <v>554</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10812,10 +10782,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>554</v>
+      </c>
+      <c r="F284" t="s">
         <v>555</v>
-      </c>
-      <c r="F284" t="s">
-        <v>556</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10841,10 +10811,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>556</v>
+      </c>
+      <c r="F285" t="s">
         <v>557</v>
-      </c>
-      <c r="F285" t="s">
-        <v>558</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10870,10 +10840,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>558</v>
+      </c>
+      <c r="F286" t="s">
         <v>559</v>
-      </c>
-      <c r="F286" t="s">
-        <v>560</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10899,10 +10869,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>560</v>
+      </c>
+      <c r="F287" t="s">
         <v>561</v>
-      </c>
-      <c r="F287" t="s">
-        <v>562</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10928,13 +10898,13 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>562</v>
+      </c>
+      <c r="F288" t="s">
         <v>563</v>
       </c>
-      <c r="F288" t="s">
-        <v>564</v>
-      </c>
       <c r="G288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -10957,13 +10927,13 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>564</v>
+      </c>
+      <c r="F289" t="s">
         <v>565</v>
       </c>
-      <c r="F289" t="s">
-        <v>566</v>
-      </c>
       <c r="G289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -10986,10 +10956,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>566</v>
+      </c>
+      <c r="F290" t="s">
         <v>567</v>
-      </c>
-      <c r="F290" t="s">
-        <v>568</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11015,13 +10985,13 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>568</v>
+      </c>
+      <c r="F291" t="s">
         <v>569</v>
       </c>
-      <c r="F291" t="s">
-        <v>570</v>
-      </c>
       <c r="G291" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -11044,13 +11014,13 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>570</v>
+      </c>
+      <c r="F292" t="s">
         <v>571</v>
       </c>
-      <c r="F292" t="s">
-        <v>572</v>
-      </c>
       <c r="G292" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -11073,13 +11043,13 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>572</v>
+      </c>
+      <c r="F293" t="s">
         <v>573</v>
       </c>
-      <c r="F293" t="s">
-        <v>574</v>
-      </c>
       <c r="G293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -11102,10 +11072,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>574</v>
+      </c>
+      <c r="F294" t="s">
         <v>575</v>
-      </c>
-      <c r="F294" t="s">
-        <v>576</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11131,10 +11101,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>576</v>
+      </c>
+      <c r="F295" t="s">
         <v>577</v>
-      </c>
-      <c r="F295" t="s">
-        <v>578</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11160,10 +11130,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>578</v>
+      </c>
+      <c r="F296" t="s">
         <v>579</v>
-      </c>
-      <c r="F296" t="s">
-        <v>580</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11189,10 +11159,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>580</v>
+      </c>
+      <c r="F297" t="s">
         <v>581</v>
-      </c>
-      <c r="F297" t="s">
-        <v>582</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11218,10 +11188,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
+        <v>582</v>
+      </c>
+      <c r="F298" t="s">
         <v>583</v>
-      </c>
-      <c r="F298" t="s">
-        <v>584</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11247,10 +11217,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>584</v>
+      </c>
+      <c r="F299" t="s">
         <v>585</v>
-      </c>
-      <c r="F299" t="s">
-        <v>586</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11276,10 +11246,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>586</v>
+      </c>
+      <c r="F300" t="s">
         <v>587</v>
-      </c>
-      <c r="F300" t="s">
-        <v>588</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11305,10 +11275,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
+        <v>588</v>
+      </c>
+      <c r="F301" t="s">
         <v>589</v>
-      </c>
-      <c r="F301" t="s">
-        <v>590</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11334,10 +11304,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
+        <v>590</v>
+      </c>
+      <c r="F302" t="s">
         <v>591</v>
-      </c>
-      <c r="F302" t="s">
-        <v>592</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11363,10 +11333,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
+        <v>592</v>
+      </c>
+      <c r="F303" t="s">
         <v>593</v>
-      </c>
-      <c r="F303" t="s">
-        <v>594</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11392,13 +11362,13 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
+        <v>594</v>
+      </c>
+      <c r="F304" t="s">
         <v>595</v>
       </c>
-      <c r="F304" t="s">
-        <v>596</v>
-      </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -11421,13 +11391,13 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
+        <v>596</v>
+      </c>
+      <c r="F305" t="s">
         <v>597</v>
       </c>
-      <c r="F305" t="s">
-        <v>598</v>
-      </c>
       <c r="G305" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -11450,10 +11420,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>598</v>
+      </c>
+      <c r="F306" t="s">
         <v>599</v>
-      </c>
-      <c r="F306" t="s">
-        <v>600</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11479,10 +11449,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
+        <v>600</v>
+      </c>
+      <c r="F307" t="s">
         <v>601</v>
-      </c>
-      <c r="F307" t="s">
-        <v>602</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11508,10 +11478,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
+        <v>602</v>
+      </c>
+      <c r="F308" t="s">
         <v>603</v>
-      </c>
-      <c r="F308" t="s">
-        <v>604</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11537,10 +11507,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
+        <v>604</v>
+      </c>
+      <c r="F309" t="s">
         <v>605</v>
-      </c>
-      <c r="F309" t="s">
-        <v>606</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11566,10 +11536,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F310" t="s">
-        <v>608</v>
+        <v>168</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11595,10 +11565,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F311" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11624,10 +11594,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F312" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11653,10 +11623,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F313" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11682,10 +11652,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F314" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11711,10 +11681,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F315" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11740,10 +11710,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F316" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11769,10 +11739,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F317" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11798,10 +11768,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F318" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11827,10 +11797,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F319" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11856,10 +11826,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F320" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11885,13 +11855,13 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F321" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -11914,13 +11884,13 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F322" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -11943,10 +11913,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F323" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11972,10 +11942,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F324" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12001,10 +11971,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F325" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12030,10 +12000,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F326" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12059,10 +12029,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F327" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12088,10 +12058,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F328" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12117,10 +12087,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F329" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12146,10 +12116,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F330" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12175,10 +12145,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F331" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12204,10 +12174,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F332" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12233,10 +12203,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F333" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12262,10 +12232,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F334" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12291,10 +12261,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F335" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12320,10 +12290,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F336" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12349,13 +12319,13 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F337" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G337" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -12378,13 +12348,13 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F338" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G338" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -12407,13 +12377,13 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F339" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -12436,13 +12406,13 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F340" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -12465,10 +12435,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F341" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12494,13 +12464,13 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>671</v>
+        <v>7</v>
       </c>
       <c r="F342" t="s">
-        <v>672</v>
+        <v>8</v>
       </c>
       <c r="G342" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -12523,13 +12493,13 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>7</v>
+        <v>669</v>
       </c>
       <c r="F343" t="s">
-        <v>8</v>
+        <v>670</v>
       </c>
       <c r="G343" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -12552,10 +12522,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F344" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12581,13 +12551,13 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F345" t="s">
-        <v>676</v>
+        <v>30</v>
       </c>
       <c r="G345" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
@@ -12610,13 +12580,13 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F346" t="s">
-        <v>678</v>
+        <v>10</v>
       </c>
       <c r="G346" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -12639,13 +12609,13 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F347" t="s">
-        <v>680</v>
+        <v>18</v>
       </c>
       <c r="G347" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H347" t="s">
         <v>4</v>
@@ -12668,10 +12638,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F348" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12697,10 +12667,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F349" t="s">
-        <v>684</v>
+        <v>632</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12726,10 +12696,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F350" t="s">
-        <v>686</v>
+        <v>28</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12755,10 +12725,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F351" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12784,10 +12754,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="F352" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12813,10 +12783,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F353" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12842,13 +12812,13 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F354" t="s">
-        <v>694</v>
+        <v>3</v>
       </c>
       <c r="G354" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -12871,13 +12841,13 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F355" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G355" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -12900,10 +12870,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="F356" t="s">
-        <v>698</v>
+        <v>22</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12929,10 +12899,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="F357" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12958,10 +12928,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="F358" t="s">
-        <v>702</v>
+        <v>36</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12987,13 +12957,13 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="F359" t="s">
-        <v>704</v>
+        <v>26</v>
       </c>
       <c r="G359" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H359" t="s">
         <v>4</v>
@@ -13016,13 +12986,13 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="F360" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="G360" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H360" t="s">
         <v>4</v>
@@ -13045,10 +13015,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="F361" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13074,10 +13044,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>709</v>
+        <v>33</v>
       </c>
       <c r="F362" t="s">
-        <v>710</v>
+        <v>34</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13103,13 +13073,13 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F363" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H363" t="s">
         <v>4</v>
@@ -13132,13 +13102,13 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>33</v>
+        <v>698</v>
       </c>
       <c r="F364" t="s">
-        <v>34</v>
+        <v>699</v>
       </c>
       <c r="G364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -13161,10 +13131,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="F365" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13190,13 +13160,13 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="F366" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="G366" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H366" t="s">
         <v>4</v>
@@ -13219,13 +13189,13 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="F367" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="G367" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H367" t="s">
         <v>4</v>
@@ -13248,10 +13218,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="F368" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13277,10 +13247,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="F369" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13306,10 +13276,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="F370" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13335,10 +13305,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="F371" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13364,10 +13334,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="F372" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13393,10 +13363,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="F373" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13422,13 +13392,13 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="F374" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="G374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H374" t="s">
         <v>4</v>
@@ -13451,13 +13421,13 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="F375" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="G375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H375" t="s">
         <v>4</v>
@@ -13480,10 +13450,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="F376" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13509,10 +13479,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="F377" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13538,10 +13508,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="F378" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13567,18 +13537,47 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="F379" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="G379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H379" t="s">
         <v>4</v>
       </c>
       <c r="I379" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="s">
+        <v>0</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1</v>
+      </c>
+      <c r="D380" t="n">
+        <v>379</v>
+      </c>
+      <c r="E380" t="s">
+        <v>728</v>
+      </c>
+      <c r="F380" t="s">
+        <v>730</v>
+      </c>
+      <c r="G380" t="n">
+        <v>1</v>
+      </c>
+      <c r="H380" t="s">
+        <v>4</v>
+      </c>
+      <c r="I380" t="n">
         <v>3</v>
       </c>
     </row>
